--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_2_7.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_2_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9646691440084076</v>
+        <v>0.9969318732677959</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7974297494667504</v>
+        <v>0.8213880924232613</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8917855175667733</v>
+        <v>0.9024230270601622</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8380899055565382</v>
+        <v>0.9975832145236309</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8566158392884894</v>
+        <v>0.9861626412439117</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2362575966994112</v>
+        <v>0.02051657758567377</v>
       </c>
       <c r="H2" t="n">
-        <v>1.354588198066077</v>
+        <v>1.194378648397864</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1563852748511318</v>
+        <v>0.08047464115991507</v>
       </c>
       <c r="J2" t="n">
-        <v>0.572667118424725</v>
+        <v>0.01461381157023932</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3645265366881475</v>
+        <v>0.0475442263650772</v>
       </c>
       <c r="L2" t="n">
-        <v>1.008223301616056</v>
+        <v>0.1388314386994699</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4860633669588886</v>
+        <v>0.1432360903741574</v>
       </c>
       <c r="N2" t="n">
-        <v>1.022917311994546</v>
+        <v>1.001990136258727</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5067560907802079</v>
+        <v>0.1493339472809681</v>
       </c>
       <c r="P2" t="n">
-        <v>124.8856651155677</v>
+        <v>129.773044113827</v>
       </c>
       <c r="Q2" t="n">
-        <v>199.2370904325279</v>
+        <v>204.1244694307873</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9617459645340202</v>
+        <v>0.9970358127683493</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7931631925854846</v>
+        <v>0.8213704376817523</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8401169485389028</v>
+        <v>0.9030036299557513</v>
       </c>
       <c r="E3" t="n">
-        <v>0.784519605431541</v>
+        <v>0.9971805809327161</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8046662859857152</v>
+        <v>0.9858780309814844</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2558049113046444</v>
+        <v>0.01982153366687529</v>
       </c>
       <c r="H3" t="n">
-        <v>1.38311868357679</v>
+        <v>1.194496705735626</v>
       </c>
       <c r="I3" t="n">
-        <v>0.23105368509441</v>
+        <v>0.07999580062744889</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7621423300301535</v>
+        <v>0.01704845522686916</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4965982428932552</v>
+        <v>0.04852212792715902</v>
       </c>
       <c r="L3" t="n">
-        <v>1.14647498199658</v>
+        <v>0.1300490760429445</v>
       </c>
       <c r="M3" t="n">
-        <v>0.505771599938791</v>
+        <v>0.1407889685553357</v>
       </c>
       <c r="N3" t="n">
-        <v>1.024813428410365</v>
+        <v>1.001922716042152</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5273033440397311</v>
+        <v>0.1467826464200787</v>
       </c>
       <c r="P3" t="n">
-        <v>124.7266803804762</v>
+        <v>129.8419727466247</v>
       </c>
       <c r="Q3" t="n">
-        <v>199.0781056974365</v>
+        <v>204.1933980635849</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9573623501072138</v>
+        <v>0.997110804144149</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7876961513823061</v>
+        <v>0.82133412962889</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7837134195256116</v>
+        <v>0.9035138037486089</v>
       </c>
       <c r="E4" t="n">
-        <v>0.723229792193391</v>
+        <v>0.9967854623726532</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7460012383734862</v>
+        <v>0.9855915808813388</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2851181611613866</v>
+        <v>0.01932006599159972</v>
       </c>
       <c r="H4" t="n">
-        <v>1.419676813275854</v>
+        <v>1.1947394978523</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3125647840617787</v>
+        <v>0.07957504507752304</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9789210358701231</v>
+        <v>0.01943765701623827</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6457427964102767</v>
+        <v>0.04950635104688066</v>
       </c>
       <c r="L4" t="n">
-        <v>1.276627889245935</v>
+        <v>0.1221510953389132</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5339645692004167</v>
+        <v>0.1389966402169481</v>
       </c>
       <c r="N4" t="n">
-        <v>1.02765685398451</v>
+        <v>1.001874072987579</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5566965463703161</v>
+        <v>0.1449140149536949</v>
       </c>
       <c r="P4" t="n">
-        <v>124.5097031681406</v>
+        <v>129.8932220689786</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.8611284851008</v>
+        <v>204.2446473859389</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.951920807784103</v>
+        <v>0.997163245506889</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7813613314514946</v>
+        <v>0.8212849602692931</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7247847636070133</v>
+        <v>0.9039628758795839</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6566461880575667</v>
+        <v>0.9964033569629221</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6829358217631045</v>
+        <v>0.9853092483707204</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3215057797320268</v>
+        <v>0.01896939035748711</v>
       </c>
       <c r="H5" t="n">
-        <v>1.462037783322355</v>
+        <v>1.195068293586328</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3977250495384833</v>
+        <v>0.0792046818913499</v>
       </c>
       <c r="J5" t="n">
-        <v>1.214423589592059</v>
+        <v>0.0217481709250559</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8060744382576046</v>
+        <v>0.05047642640820291</v>
       </c>
       <c r="L5" t="n">
-        <v>1.397685518746427</v>
+        <v>0.1150492344196039</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5670147967487504</v>
+        <v>0.13772940992209</v>
       </c>
       <c r="N5" t="n">
-        <v>1.03118650305896</v>
+        <v>1.001840056968504</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5911537905287853</v>
+        <v>0.1435928360416563</v>
       </c>
       <c r="P5" t="n">
-        <v>124.269479516145</v>
+        <v>129.9298572654852</v>
       </c>
       <c r="Q5" t="n">
-        <v>198.6209048331052</v>
+        <v>204.2812825824454</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9457838037893873</v>
+        <v>0.9971982625181994</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7744671243372256</v>
+        <v>0.8212272757521905</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6651143069943791</v>
+        <v>0.9043589282233218</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5871578624311483</v>
+        <v>0.9960379335474829</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6176391402460559</v>
+        <v>0.9850352317452951</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3625439537029959</v>
+        <v>0.01873523144161557</v>
       </c>
       <c r="H6" t="n">
-        <v>1.508139378040376</v>
+        <v>1.195454030217807</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4839573222254347</v>
+        <v>0.0788780457057562</v>
       </c>
       <c r="J6" t="n">
-        <v>1.460199983815186</v>
+        <v>0.02395781219805993</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9720786402037955</v>
+        <v>0.05141792895190807</v>
       </c>
       <c r="L6" t="n">
-        <v>1.509222763371836</v>
+        <v>0.1086622311456168</v>
       </c>
       <c r="M6" t="n">
-        <v>0.60211622939678</v>
+        <v>0.1368767016026306</v>
       </c>
       <c r="N6" t="n">
-        <v>1.035167262406884</v>
+        <v>1.001817343231438</v>
       </c>
       <c r="O6" t="n">
-        <v>0.627749563834624</v>
+        <v>0.1427038261636879</v>
       </c>
       <c r="P6" t="n">
-        <v>124.0292191208866</v>
+        <v>129.9546989867544</v>
       </c>
       <c r="Q6" t="n">
-        <v>198.3806444378469</v>
+        <v>204.3061243037147</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9392555165836772</v>
+        <v>0.9972198489304637</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7672787255837508</v>
+        <v>0.821164651714681</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6060617291286072</v>
+        <v>0.9047074449590371</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5168539206904578</v>
+        <v>0.9956913502110576</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5519506077408547</v>
+        <v>0.9847720881665334</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4061986403075779</v>
+        <v>0.01859088300340825</v>
       </c>
       <c r="H7" t="n">
-        <v>1.556208233604395</v>
+        <v>1.19587279744499</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5692966724912827</v>
+        <v>0.0785906135545025</v>
       </c>
       <c r="J7" t="n">
-        <v>1.708861167473503</v>
+        <v>0.02605353133466846</v>
       </c>
       <c r="K7" t="n">
-        <v>1.139079047608806</v>
+        <v>0.05232207244458549</v>
       </c>
       <c r="L7" t="n">
-        <v>1.611248702359409</v>
+        <v>0.1029157339008149</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6373371480680989</v>
+        <v>0.1363483883418072</v>
       </c>
       <c r="N7" t="n">
-        <v>1.039401827080858</v>
+        <v>1.001803341234294</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6644699099311338</v>
+        <v>0.142153021513592</v>
       </c>
       <c r="P7" t="n">
-        <v>123.8018259543773</v>
+        <v>129.9701679590766</v>
       </c>
       <c r="Q7" t="n">
-        <v>198.1532512713375</v>
+        <v>204.3215932760368</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9325782605888372</v>
+        <v>0.9972312723501825</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7600112135734163</v>
+        <v>0.8210995434820209</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5486211355249704</v>
+        <v>0.9050157189565339</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4474205080378564</v>
+        <v>0.9953652223554105</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4873257885815983</v>
+        <v>0.9845221143407265</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4508494818910097</v>
+        <v>0.01851449454314832</v>
       </c>
       <c r="H8" t="n">
-        <v>1.604806119881318</v>
+        <v>1.196308176496584</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6523064768754578</v>
+        <v>0.07833637079025135</v>
       </c>
       <c r="J8" t="n">
-        <v>1.954443337521862</v>
+        <v>0.02802556032807038</v>
       </c>
       <c r="K8" t="n">
-        <v>1.303375169267734</v>
+        <v>0.05318096555916087</v>
       </c>
       <c r="L8" t="n">
-        <v>1.704035249710348</v>
+        <v>0.09774281393550652</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6714532611366257</v>
+        <v>0.1360679776550983</v>
       </c>
       <c r="N8" t="n">
-        <v>1.043733020158592</v>
+        <v>1.00179593144853</v>
       </c>
       <c r="O8" t="n">
-        <v>0.7000384165630775</v>
+        <v>0.1418606731634198</v>
       </c>
       <c r="P8" t="n">
-        <v>123.593243476439</v>
+        <v>129.9784027296923</v>
       </c>
       <c r="Q8" t="n">
-        <v>197.9446687933993</v>
+        <v>204.3298280466526</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,987 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9259371418662441</v>
+        <v>0.9972350368727697</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7528312801564363</v>
+        <v>0.8210338413780243</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4934836173073285</v>
+        <v>0.9052883436891005</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3801362555480414</v>
+        <v>0.9950600665530205</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4248507305556872</v>
+        <v>0.9842863161060432</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4952586733685302</v>
+        <v>0.01848932116327379</v>
       </c>
       <c r="H9" t="n">
-        <v>1.652818367701216</v>
+        <v>1.19674752676854</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7319880106886035</v>
+        <v>0.07811152903851819</v>
       </c>
       <c r="J9" t="n">
-        <v>2.192424046020299</v>
+        <v>0.02987077556926447</v>
       </c>
       <c r="K9" t="n">
-        <v>1.462205938430566</v>
+        <v>0.05399115230389133</v>
       </c>
       <c r="L9" t="n">
-        <v>1.788025418486051</v>
+        <v>0.09309371300100652</v>
       </c>
       <c r="M9" t="n">
-        <v>0.7037461711217549</v>
+        <v>0.1359754432361733</v>
       </c>
       <c r="N9" t="n">
-        <v>1.048040772843517</v>
+        <v>1.001793489596041</v>
       </c>
       <c r="O9" t="n">
-        <v>0.7337061025818129</v>
+        <v>0.1417641993627085</v>
       </c>
       <c r="P9" t="n">
-        <v>123.4053501608904</v>
+        <v>129.9811238959588</v>
       </c>
       <c r="Q9" t="n">
-        <v>197.7567754778507</v>
+        <v>204.3325492129191</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>model_2_7_8</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.9972331237981875</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8209689834471696</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9055293659514847</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9947758841800374</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.9840651803512661</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.01850211390181349</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.197181232050807</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.07791275078692306</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0315891687369521</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.05475095976193758</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.08890726205961523</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.1360224757229977</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.001794730509284</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.1418132341198677</v>
+      </c>
+      <c r="P10" t="n">
+        <v>129.9797405769254</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>204.3311658938857</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>model_2_7_9</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.9972271151362522</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8209059677794723</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.905741549050214</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9945125392740349</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.983858919077688</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.01854229385184224</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.19760261811086</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.0777377570541193</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.03318156196834594</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.05545965951123261</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.0851469367456264</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.1361700916201581</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.001798628019728</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.1419671343313772</v>
+      </c>
+      <c r="P11" t="n">
+        <v>129.9754020040372</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>204.3268273209974</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>model_2_7_10</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.9972182607358735</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.820845540571825</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.9059309582348949</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.9942692980734904</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9836676145461339</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.01860150326794585</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.198006695126639</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.07758154564777671</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0346523921705437</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.05611696890916021</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.08175917887206012</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.1363873281061912</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.001804371414569</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.1421936190243623</v>
+      </c>
+      <c r="P12" t="n">
+        <v>129.969025761343</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>204.3204510783033</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>model_2_7_11</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.997207473187913</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8207880459996512</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.9060988515959296</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.9940453388528345</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.9834906946814097</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.01867363965082904</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.198391161595504</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.07744307898320064</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.03600662815138859</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.05672485356729462</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.07871228677183101</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.1366515263391853</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.001811368742975</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.1424690647231007</v>
+      </c>
+      <c r="P13" t="n">
+        <v>129.9612847878911</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>204.3127101048514</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>model_2_7_12</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.9971954813753362</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8207338403943185</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9062477981418001</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9938396529535085</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.9833275802497666</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.01875382895674772</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.198753634727957</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.07732023832244016</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.03725036906459583</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.057285303693518</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.07596942807596677</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.136944620035793</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.001819147215998</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.1427746360251606</v>
+      </c>
+      <c r="P14" t="n">
+        <v>129.9527146727748</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>204.3041399897351</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>model_2_7_13</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.997182842159668</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8206831141048531</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9063801658899742</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9936512298405499</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9831776662443166</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.01883834745011871</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.199092841659186</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.07721107069083084</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.03838972541011328</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.05780039805047206</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.0735002911083317</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.1372528595334855</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.001827345626161</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.1430959979164136</v>
+      </c>
+      <c r="P15" t="n">
+        <v>129.9437214572859</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>204.2951467742461</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>model_2_7_14</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9971699835349844</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8206358176890145</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9064990417592905</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9934789302097278</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9830403206287914</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.01892433313258643</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.199409113009679</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.07711303021429641</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0394315863295353</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.05827230827191585</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.07128596019144047</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.1375657411297828</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.001835686355686</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.1434221995300195</v>
+      </c>
+      <c r="P16" t="n">
+        <v>129.9346134353187</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>204.2860387522789</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>model_2_7_15</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.9971571642474992</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8205919485216202</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9066029862595987</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9933217006065759</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9829144436702005</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.01901005576702768</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.199702466334043</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.07702730408331666</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0403823218483444</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.05870481296583054</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.0692899068463604</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.1378769587967028</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.00184400156919</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.1437466663773296</v>
+      </c>
+      <c r="P17" t="n">
+        <v>129.9255743778467</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>204.276999694807</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>model_2_7_16</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.9971446314737</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8205514414396066</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.9066960504325229</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.9931783022153139</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9827994314781565</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.01909386248313097</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.199973337377986</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.07695055128298602</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.04124942283428992</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.05909998705863798</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.06748704278965156</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.1381805430700392</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.001852130935978</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.1440631748616881</v>
+      </c>
+      <c r="P18" t="n">
+        <v>129.9167766630615</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>204.2682019800217</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>model_2_7_17</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.9971326162598934</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8205140825230063</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9067809377183037</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9930479649785242</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9826949309064031</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01917420827318088</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.200223156625314</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.0768805422054708</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.04203754566838224</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.05945904393692653</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.0658735543275671</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.1384709654518985</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.001859924588177</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.1443659611256004</v>
+      </c>
+      <c r="P19" t="n">
+        <v>129.908378444231</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>204.2598037611913</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>model_2_7_18</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.997121106058353</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.8204797814892617</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.9068551657804138</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9929293558572055</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9825994710479343</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.01925117704388106</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.200452527795906</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.07681932410777483</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.04275475096707806</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.05978703753742644</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.06441803293541397</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.1387486109619879</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.001867390664852</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.1446554265798596</v>
+      </c>
+      <c r="P20" t="n">
+        <v>129.9003661499619</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>204.2517914669222</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>model_2_7_19</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.9971102613553704</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.8204483539966902</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.9069220564733089</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.9928218268567428</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9825128803831381</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.01932369562266148</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.200662683583441</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.07676415735740856</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.04340495702237886</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.06008455718989371</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.06310742117827972</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.1390096961462094</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.001874425066787</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.1449276267008943</v>
+      </c>
+      <c r="P21" t="n">
+        <v>129.8928463673471</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>204.2442716843073</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>model_2_7_20</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9971000443298408</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.820419697687749</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.906981200220052</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.9927241645484369</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9824340420175126</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.01939201691942307</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.200854308453281</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.0767153797446931</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.04399550119150446</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.06035544046809879</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.0619323316763293</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.1392552222339366</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.00188105232659</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.1451836053424851</v>
+      </c>
+      <c r="P22" t="n">
+        <v>129.8857875932012</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>204.2372129101615</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>model_2_7_21</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.9970905393681045</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8203934858660725</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.9070354667051526</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.99263569421801</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9823627066524914</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0194555766423194</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.201029587025527</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.07667062455518577</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.04453046333483757</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.06060054394501167</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.06086848673725116</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.1394832486082806</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.001887217707175</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.1454213392716646</v>
+      </c>
+      <c r="P23" t="n">
+        <v>129.8792430663687</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>204.2306683833289</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>model_2_7_22</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9970816752059179</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.8203695856246838</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9070822984843264</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9925555857338627</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9822978368930351</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.01951485133567693</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.201189408049744</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.07663200098949853</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.04501486308978202</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.06082343203964027</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.05991371814381551</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.1396955666285689</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.001892967433999</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.1456426961096355</v>
+      </c>
+      <c r="P24" t="n">
+        <v>129.8731589926601</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>204.2245843096204</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>model_2_7_23</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9970734578212617</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.8203478558518629</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9071239596219246</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9924830302546697</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9822389927336606</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.01956980102471094</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.201334715140654</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.07659764180620443</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.0454535913557715</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.06102561658098796</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.05905210686085793</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.1398921049405968</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.001898297629452</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.1458476014644968</v>
+      </c>
+      <c r="P25" t="n">
+        <v>129.8675353299772</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>204.2189606469374</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>model_2_7_24</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9970659291157766</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.8203281181979396</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.9071633760268335</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.9924174460189763</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.9821860134160803</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.01962014551295554</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.201466700923322</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.07656513392093915</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.04585016592632091</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.06120764992363002</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.05828113282375891</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.1400719297823641</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.001903181114091</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.1460350818220668</v>
+      </c>
+      <c r="P26" t="n">
+        <v>129.8623968166199</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>204.2138221335802</v>
       </c>
     </row>
   </sheetData>
